--- a/garment_data.xlsx
+++ b/garment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29932ABE-89CD-454C-B3AC-3D1DB7BF41B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DEE6614-49E4-4364-830B-5BCD59B3C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67CA9DB-5328-405A-87C9-C948249F679B}"/>
   </bookViews>
@@ -39,13 +39,13 @@
     <t>Variance</t>
   </si>
   <si>
-    <t>Productivity</t>
-  </si>
-  <si>
     <t>Efficiency</t>
   </si>
   <si>
     <t>Lost Time</t>
+  </si>
+  <si>
+    <t>Plan Vs. Actual</t>
   </si>
 </sst>
 </file>
@@ -89,12 +89,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -414,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,47 +441,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="C2" s="2">
-        <v>75</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-B2</f>
-        <v>5</v>
+        <f>B2-C2</f>
+        <v>-2000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">C3-B3</f>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D4" si="0">B3-C3</f>
+        <v>-4.9999999999999933E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>1.0000000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/garment_data.xlsx
+++ b/garment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DEE6614-49E4-4364-830B-5BCD59B3C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39B4BD5-02AC-4FB2-B1BC-351C5EB82EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67CA9DB-5328-405A-87C9-C948249F679B}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -46,12 +43,18 @@
   </si>
   <si>
     <t>Plan Vs. Actual</t>
+  </si>
+  <si>
+    <t>KPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -98,6 +101,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,7 +423,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,21 +433,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>8000</v>
@@ -456,7 +462,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>0.65</v>
@@ -471,17 +477,17 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-2</v>
+        <v>9.999999999999995E-3</v>
       </c>
     </row>
   </sheetData>

--- a/garment_data.xlsx
+++ b/garment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39B4BD5-02AC-4FB2-B1BC-351C5EB82EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2544211-AA11-4A17-9E74-81A49C4836F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67CA9DB-5328-405A-87C9-C948249F679B}"/>
   </bookViews>
@@ -52,9 +52,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -100,10 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,12 +417,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -449,15 +446,15 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
         <f>B2-C2</f>
-        <v>-2000</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,32 +462,33 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>0.65</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D4" si="0">B3-C3</f>
-        <v>-4.9999999999999933E-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3.5000000000000003E-2</v>
+      <c r="B4" s="3">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>9.999999999999995E-3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/garment_data.xlsx
+++ b/garment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2544211-AA11-4A17-9E74-81A49C4836F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFEC78C-1224-4F47-86F2-27C96706BA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67CA9DB-5328-405A-87C9-C948249F679B}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,14 +477,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/garment_data.xlsx
+++ b/garment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFEC78C-1224-4F47-86F2-27C96706BA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D80DCB4-43DD-4BFF-850E-4BF654A719BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67CA9DB-5328-405A-87C9-C948249F679B}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>KPI</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,21 +430,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>80</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>65</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
